--- a/Documentation_and_Tools/Tools/Mega Items List.xlsx
+++ b/Documentation_and_Tools/Tools/Mega Items List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="270" windowWidth="25260" windowHeight="8595"/>
+    <workbookView xWindow="180" yWindow="270" windowWidth="25260" windowHeight="8595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All Items" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="617">
   <si>
     <t>FoodCanBadguy</t>
   </si>
@@ -1719,72 +1719,6 @@
     <t>SkinBanditSkin_DZ</t>
   </si>
   <si>
-    <t>SkinCamo1_DZ</t>
-  </si>
-  <si>
-    <t>SkinSMD_ATACS_URBAN</t>
-  </si>
-  <si>
-    <t>SkinSMD_ATACS_DES</t>
-  </si>
-  <si>
-    <t>SkinSMD_RACS_MP</t>
-  </si>
-  <si>
-    <t>SkinSMD_RACS_MP_Tan</t>
-  </si>
-  <si>
-    <t>SkinSMD_RACS_MP_Tan_Digi</t>
-  </si>
-  <si>
-    <t>SkinSMD_RACS_Soldier</t>
-  </si>
-  <si>
-    <t>SkinSMD_RACS_Soldier_Digi</t>
-  </si>
-  <si>
-    <t>SkinSMD_RACS_SWAT</t>
-  </si>
-  <si>
-    <t>SkinSMD_SPD_SWAT_BLACK</t>
-  </si>
-  <si>
-    <t>SkinSMD_SPD_SWAT_BLACK_DIGI</t>
-  </si>
-  <si>
-    <t>SkinSMD_SPD_BLUE</t>
-  </si>
-  <si>
-    <t>SkinSMD_SPD_BLUE_DIGI</t>
-  </si>
-  <si>
-    <t>SkinSMD_SARA_Sheriff</t>
-  </si>
-  <si>
-    <t>SkinSMD_US_SpecOps</t>
-  </si>
-  <si>
-    <t>SkinSMD_US_SpecOps_DIGI</t>
-  </si>
-  <si>
-    <t>SkinSMD_US_SpecOps_MP_DIGI</t>
-  </si>
-  <si>
-    <t>SkinRocket_DZ</t>
-  </si>
-  <si>
-    <t>SkinSoldier1_DZ</t>
-  </si>
-  <si>
-    <t>SkinSniper1_DZ</t>
-  </si>
-  <si>
-    <t>SkinSniperLight_DZ</t>
-  </si>
-  <si>
-    <t>SkinSniperD_DZ</t>
-  </si>
-  <si>
     <t>DZ_Patrol_Pack_EP1 //10</t>
   </si>
   <si>
@@ -1851,9 +1785,6 @@
     <t>SMD_TIGER_CAMO</t>
   </si>
   <si>
-    <t>SkinSMD_TIGER_CAMO</t>
-  </si>
-  <si>
     <t>Skin_SMD_ATACS_DES</t>
   </si>
   <si>
@@ -1921,6 +1852,24 @@
   </si>
   <si>
     <t>ItemShovel</t>
+  </si>
+  <si>
+    <t>Skin_SMD_SARA_Sheriff</t>
+  </si>
+  <si>
+    <t>Skin_Soldier1_DZ</t>
+  </si>
+  <si>
+    <t>Skin_SMD_RSPD_BLUE</t>
+  </si>
+  <si>
+    <t>Skin_SMD_RSPD_BLUE_DIGI</t>
+  </si>
+  <si>
+    <t>Skin_SMD_RSPD_SWAT_BLACK</t>
+  </si>
+  <si>
+    <t>Skin_SMD_RSPD_SWAT_BLACK_DIGI</t>
   </si>
 </sst>
 </file>
@@ -2269,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="15"/>
@@ -2329,7 +2278,7 @@
         <v>253</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="C2" t="s">
         <v>565</v>
@@ -2364,10 +2313,10 @@
         <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>566</v>
+        <v>336</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>19</v>
@@ -2399,10 +2348,10 @@
         <v>255</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>583</v>
+        <v>337</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>20</v>
@@ -2434,10 +2383,10 @@
         <v>229</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>317</v>
@@ -2466,16 +2415,16 @@
         <v>236</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="F6" t="s">
         <v>241</v>
@@ -2498,16 +2447,16 @@
         <v>256</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>569</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="F7" t="s">
         <v>242</v>
@@ -2530,16 +2479,16 @@
         <v>257</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="C8" t="s">
-        <v>570</v>
+        <v>566</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>591</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="F8" t="s">
         <v>250</v>
@@ -2562,10 +2511,10 @@
         <v>258</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="C9" t="s">
-        <v>571</v>
+        <v>569</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>592</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>24</v>
@@ -2593,8 +2542,8 @@
       <c r="A10" t="s">
         <v>232</v>
       </c>
-      <c r="C10" t="s">
-        <v>572</v>
+      <c r="C10" s="5" t="s">
+        <v>593</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>25</v>
@@ -2620,7 +2569,7 @@
         <v>459</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>26</v>
@@ -2645,8 +2594,8 @@
       <c r="A12" t="s">
         <v>259</v>
       </c>
-      <c r="C12" t="s">
-        <v>574</v>
+      <c r="C12" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>27</v>
@@ -2671,14 +2620,14 @@
       <c r="A13" t="s">
         <v>464</v>
       </c>
-      <c r="C13" t="s">
-        <v>579</v>
+      <c r="C13" s="5" t="s">
+        <v>611</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
@@ -2697,8 +2646,8 @@
       <c r="A14" t="s">
         <v>260</v>
       </c>
-      <c r="C14" t="s">
-        <v>577</v>
+      <c r="C14" s="5" t="s">
+        <v>613</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>328</v>
@@ -2723,8 +2672,8 @@
       <c r="A15" t="s">
         <v>466</v>
       </c>
-      <c r="C15" t="s">
-        <v>578</v>
+      <c r="C15" s="5" t="s">
+        <v>614</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
@@ -2747,12 +2696,12 @@
       <c r="A16" t="s">
         <v>479</v>
       </c>
-      <c r="C16" t="s">
-        <v>575</v>
+      <c r="C16" s="5" t="s">
+        <v>615</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>456</v>
@@ -2771,8 +2720,8 @@
       <c r="A17" t="s">
         <v>465</v>
       </c>
-      <c r="C17" t="s">
-        <v>576</v>
+      <c r="C17" s="5" t="s">
+        <v>616</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
@@ -2795,12 +2744,12 @@
       <c r="A18" t="s">
         <v>478</v>
       </c>
-      <c r="C18" t="s">
-        <v>610</v>
+      <c r="C18" s="5" t="s">
+        <v>600</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -2816,8 +2765,8 @@
       <c r="A19" t="s">
         <v>467</v>
       </c>
-      <c r="C19" t="s">
-        <v>580</v>
+      <c r="C19" s="5" t="s">
+        <v>601</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
@@ -2837,12 +2786,12 @@
       <c r="A20" t="s">
         <v>480</v>
       </c>
-      <c r="C20" t="s">
-        <v>581</v>
+      <c r="C20" s="5" t="s">
+        <v>602</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2858,8 +2807,8 @@
       <c r="A21" t="s">
         <v>261</v>
       </c>
-      <c r="C21" t="s">
-        <v>582</v>
+      <c r="C21" s="5" t="s">
+        <v>603</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>322</v>
@@ -2878,8 +2827,8 @@
       <c r="A22" t="s">
         <v>262</v>
       </c>
-      <c r="C22" t="s">
-        <v>585</v>
+      <c r="C22" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>357</v>
@@ -2898,8 +2847,8 @@
       <c r="A23" t="s">
         <v>233</v>
       </c>
-      <c r="C23" t="s">
-        <v>587</v>
+      <c r="C23" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>60</v>
@@ -2918,8 +2867,8 @@
       <c r="A24" t="s">
         <v>228</v>
       </c>
-      <c r="C24" t="s">
-        <v>586</v>
+      <c r="C24" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>329</v>
@@ -2939,7 +2888,7 @@
         <v>235</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>330</v>
@@ -4045,8 +3994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6082,82 +6031,82 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
     </row>
     <row r="172" spans="1:1">
@@ -6267,50 +6216,50 @@
     </row>
     <row r="11" spans="2:3" s="5" customFormat="1">
       <c r="B11" s="5" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="2:3" s="5" customFormat="1">
       <c r="B12" s="5" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="2:3" s="5" customFormat="1">
       <c r="B13" s="5" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="2:3" s="5" customFormat="1">
       <c r="B14" s="5" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="2:3" s="5" customFormat="1">
       <c r="B15" s="5" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="2:3" s="5" customFormat="1">
       <c r="B16" s="5" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -6570,7 +6519,7 @@
         <v>564</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="5" customFormat="1">
@@ -6578,7 +6527,7 @@
         <v>564</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64" spans="1:2">
